--- a/2/ИДЗ_2_Кравченко_ПИ-13-6.xlsx
+++ b/2/ИДЗ_2_Кравченко_ПИ-13-6.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Макс" sheetId="1" r:id="rId1"/>
-    <sheet name="Макс2" sheetId="2" r:id="rId2"/>
-    <sheet name="МатрВектор" sheetId="3" r:id="rId3"/>
-    <sheet name="УмножениеМатриц" sheetId="4" r:id="rId4"/>
+    <sheet name="МатрВектор" sheetId="3" r:id="rId2"/>
+    <sheet name="УмножениеМатриц" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="23">
   <si>
     <t>t (мс)</t>
   </si>
@@ -40,22 +39,13 @@
     <t>Stand</t>
   </si>
   <si>
-    <t>SIMD</t>
-  </si>
-  <si>
     <t>Максимальный элемент и индексы</t>
-  </si>
-  <si>
-    <t>Максимальный элемент</t>
   </si>
   <si>
     <t>Умножение матрицы на вектор</t>
   </si>
   <si>
     <t>Отношение времени выполнения SIMD  к обычным командам</t>
-  </si>
-  <si>
-    <t>Debug32</t>
   </si>
   <si>
     <t>Debug64</t>
@@ -79,7 +69,22 @@
     <t>O(n^3)</t>
   </si>
   <si>
-    <t>Столь большое различие между практическим и теоретическим из-за того, что я для SIMD команд использовал медленный алгоритм от k*n^3, а для обычных команд быстрый от k1*n^3 (тот, который лектор давал на лекции), разница в множителях.</t>
+    <t>AVX</t>
+  </si>
+  <si>
+    <t>SSE</t>
+  </si>
+  <si>
+    <t>Debug32 SSE</t>
+  </si>
+  <si>
+    <t>Debug32 AVX</t>
+  </si>
+  <si>
+    <t>Теор. Для AVX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отношение времени выполнения обычной функции к SIMD </t>
   </si>
 </sst>
 </file>
@@ -87,7 +92,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -115,23 +120,19 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="14"/>
-      <color rgb="FFC00000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -145,7 +146,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -218,11 +219,109 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -233,31 +332,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -337,10 +461,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Макс!$B$4:$B$9</c:f>
+              <c:f>Макс!$B$4:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>64</c:v>
                 </c:pt>
@@ -358,33 +482,45 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Макс!$C$4:$C$9</c:f>
+              <c:f>Макс!$C$4:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.1000000000000001E-2</c:v>
+                  <c:v>2.2499999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9000000000000001E-2</c:v>
+                  <c:v>8.5000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30499999999999999</c:v>
+                  <c:v>0.33600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.234</c:v>
+                  <c:v>0.1283</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1280000000000001</c:v>
+                  <c:v>4.976</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.04</c:v>
+                  <c:v>29.341000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80.465999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>336.476</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -395,7 +531,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Debug32SIMD</c:v>
+            <c:v>Debug32SEE</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -423,10 +559,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Макс!$B$4:$B$9</c:f>
+              <c:f>Макс!$B$4:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>64</c:v>
                 </c:pt>
@@ -444,33 +580,45 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Макс!$D$4:$D$9</c:f>
+              <c:f>Макс!$D$4:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.5999999999999999E-2</c:v>
+                  <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10199999999999999</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40300000000000002</c:v>
+                  <c:v>0.317</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9830000000000001</c:v>
+                  <c:v>1.3029999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.87</c:v>
+                  <c:v>5.3140000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.99</c:v>
+                  <c:v>21.253</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.846999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>340.47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -509,10 +657,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Макс!$B$4:$B$9</c:f>
+              <c:f>Макс!$B$4:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>64</c:v>
                 </c:pt>
@@ -530,33 +678,45 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Макс!$E$4:$E$9</c:f>
+              <c:f>Макс!$F$4:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2.1999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2799999999999999E-2</c:v>
+                  <c:v>8.8999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35799999999999998</c:v>
+                  <c:v>0.41499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.99</c:v>
+                  <c:v>1.97</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.62</c:v>
+                  <c:v>6.69</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.12</c:v>
+                  <c:v>27.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>108.96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>384.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -567,7 +727,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Debug64SIMD</c:v>
+            <c:v>Debug64SSE</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -595,10 +755,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Макс!$B$4:$B$9</c:f>
+              <c:f>Макс!$B$4:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>64</c:v>
                 </c:pt>
@@ -616,33 +776,45 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Макс!$F$4:$F$9</c:f>
+              <c:f>Макс!$G$4:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.1E-2</c:v>
+                  <c:v>2.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12</c:v>
+                  <c:v>8.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66900000000000004</c:v>
+                  <c:v>0.32600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.34</c:v>
+                  <c:v>1.3049999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.1199999999999992</c:v>
+                  <c:v>5.7539999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.97</c:v>
+                  <c:v>21.632000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>89.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>345.88499999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -681,10 +853,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Макс!$B$4:$B$9</c:f>
+              <c:f>Макс!$B$4:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>64</c:v>
                 </c:pt>
@@ -702,33 +874,45 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Макс!$G$4:$G$9</c:f>
+              <c:f>Макс!$H$4:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>8.9999999999999993E-3</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9E-2</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15</c:v>
+                  <c:v>0.159</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59</c:v>
+                  <c:v>0.60099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.89</c:v>
+                  <c:v>2.1419999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.039999999999999</c:v>
+                  <c:v>9.4809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>162.44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -739,7 +923,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>Release32SIMD</c:v>
+            <c:v>Release32SSE</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -767,10 +951,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Макс!$B$4:$B$9</c:f>
+              <c:f>Макс!$B$4:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>64</c:v>
                 </c:pt>
@@ -788,33 +972,45 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Макс!$H$4:$H$9</c:f>
+              <c:f>Макс!$I$4:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.1999999999999999E-2</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.06</c:v>
+                  <c:v>1.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17</c:v>
+                  <c:v>0.111</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1599999999999999</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.93</c:v>
+                  <c:v>1.7629999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.2</c:v>
+                  <c:v>6.28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.433000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -859,10 +1055,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Макс!$B$4:$B$9</c:f>
+              <c:f>Макс!$B$4:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>64</c:v>
                 </c:pt>
@@ -880,33 +1076,45 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Макс!$I$4:$I$9</c:f>
+              <c:f>Макс!$J$4:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>8.9999999999999993E-3</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5000000000000003E-2</c:v>
+                  <c:v>3.4000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.14599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98</c:v>
+                  <c:v>0.72199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>2.3439999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.43</c:v>
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>119.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -917,7 +1125,7 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
-            <c:v>Release64SIMD</c:v>
+            <c:v>Release64SSE</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -951,10 +1159,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Макс!$B$4:$B$9</c:f>
+              <c:f>Макс!$B$4:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>64</c:v>
                 </c:pt>
@@ -972,33 +1180,149 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Макс!$J$4:$J$9</c:f>
+              <c:f>Макс!$K$4:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.0999999999999999E-2</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1000000000000002E-2</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13300000000000001</c:v>
+                  <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.79459999999999997</c:v>
+                  <c:v>0.35699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.83</c:v>
+                  <c:v>1.4818</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.548</c:v>
+                  <c:v>7.0289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.231000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86.909000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>Debug32AVX</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Макс!$B$4:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Макс!$E$4:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.956</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.451999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>361.03500000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1013,11 +1337,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-653406496"/>
-        <c:axId val="-653410304"/>
+        <c:axId val="-224486864"/>
+        <c:axId val="-224482512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-653406496"/>
+        <c:axId val="-224486864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1074,12 +1398,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-653410304"/>
+        <c:crossAx val="-224482512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-653410304"/>
+        <c:axId val="-224482512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1136,7 +1460,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-653406496"/>
+        <c:crossAx val="-224486864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1233,1041 +1557,6 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.2107999553014844E-2"/>
-          <c:y val="0.10880817645365773"/>
-          <c:w val="0.91114314728462986"/>
-          <c:h val="0.60019015594460379"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Debug32</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Макс2!$A$3:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8192</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Макс2!$B$3:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2.1999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.3299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.302</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.08</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.98</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>83.03</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>333.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Debug32SIMD</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Макс2!$A$3:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8192</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Макс2!$C$3:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.2799999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.3089999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.39</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22.33</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>85.97</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>343.56</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Debug64</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Макс2!$A$3:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8192</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Макс2!$D$3:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.23</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26.03</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>83.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>340</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Debug64SIMD</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Макс2!$A$3:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8192</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Макс2!$E$3:$E$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21.31</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>85.52</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>349.18</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>Release32</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Макс2!$A$3:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8192</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Макс2!$F$3:$F$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.61</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>37.380000000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>130.79</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>Release32SIMD</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Макс2!$A$3:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8192</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Макс2!$G$3:$G$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>6.8999999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.105</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.66</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25.53</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>98.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:v>Release64</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Макс2!$A$3:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8192</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Макс2!$H$3:$H$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.5000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.46</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35.65</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:v>Release64SIMD</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Макс2!$A$3:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8192</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Макс2!$I$3:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5.7000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.1999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.7000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.69599999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.58</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.7160000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.619</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>93.578000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-653418464"/>
-        <c:axId val="-653424992"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-653418464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-653424992"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-653424992"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-653418464"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2342,28 +1631,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.9000000000000001E-2</c:v>
+                  <c:v>5.6000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.112</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40899999999999997</c:v>
+                  <c:v>0.41499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.97</c:v>
+                  <c:v>1.68</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.35</c:v>
+                  <c:v>7.0949999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.84</c:v>
+                  <c:v>31.706</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>128.1</c:v>
+                  <c:v>110.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>505.55</c:v>
+                  <c:v>483.149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2374,7 +1663,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Debug32SIMD</c:v>
+            <c:v>Debug32SSE</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2440,28 +1729,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.7E-2</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.8E-2</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.27</c:v>
+                  <c:v>1.337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8600000000000003</c:v>
+                  <c:v>4.9800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.09</c:v>
+                  <c:v>20.045000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>83.82</c:v>
+                  <c:v>81.86</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>333.4</c:v>
+                  <c:v>328.40800000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2533,33 +1822,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>МатрВектор!$D$3:$D$10</c:f>
+              <c:f>МатрВектор!$E$3:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.8000000000000001E-2</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.54</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.72</c:v>
+                  <c:v>2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.88</c:v>
+                  <c:v>11.241</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.26</c:v>
+                  <c:v>32.15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>133.74</c:v>
+                  <c:v>187.56</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>485.75</c:v>
+                  <c:v>568.52200000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2570,7 +1859,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Debug64SIMD</c:v>
+            <c:v>Debug64SSE</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2631,33 +1920,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>МатрВектор!$E$3:$E$10</c:f>
+              <c:f>МатрВектор!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>2.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.09</c:v>
+                  <c:v>9.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37</c:v>
+                  <c:v>0.34300000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.42</c:v>
+                  <c:v>1.401</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5.88</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.19</c:v>
+                  <c:v>23.385999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96.52</c:v>
+                  <c:v>99.887</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>383.77</c:v>
+                  <c:v>371.39800000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2729,33 +2018,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>МатрВектор!$F$3:$F$10</c:f>
+              <c:f>МатрВектор!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.2999999999999999E-2</c:v>
+                  <c:v>1.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8000000000000003E-2</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31</c:v>
+                  <c:v>0.26700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4500000000000002</c:v>
+                  <c:v>2.4340000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.12</c:v>
+                  <c:v>26.98</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>114.45</c:v>
+                  <c:v>128.79900000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>778.17</c:v>
+                  <c:v>817.49199999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6458</c:v>
+                  <c:v>6481.576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2766,7 +2055,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>Release32SIMD</c:v>
+            <c:v>Release32SSE</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2827,33 +2116,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>МатрВектор!$G$3:$G$10</c:f>
+              <c:f>МатрВектор!$H$3:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.8999999999999998E-3</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4E-2</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.113</c:v>
+                  <c:v>5.3999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54</c:v>
+                  <c:v>0.44900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5299999999999998</c:v>
+                  <c:v>2.4239999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.79</c:v>
+                  <c:v>9.33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.299999999999997</c:v>
+                  <c:v>41.15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>151.62</c:v>
+                  <c:v>150.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2931,33 +2220,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>МатрВектор!$H$3:$H$10</c:f>
+              <c:f>МатрВектор!$I$3:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9E-2</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3899999999999997</c:v>
+                  <c:v>5.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.55</c:v>
+                  <c:v>29.08</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>115.6</c:v>
+                  <c:v>126.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>782.03</c:v>
+                  <c:v>831.17200000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5849.5</c:v>
+                  <c:v>5763.23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2968,7 +2257,7 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
-            <c:v>Release64SIMD</c:v>
+            <c:v>Release64SSE</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3035,33 +2324,137 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>МатрВектор!$I$3:$I$10</c:f>
+              <c:f>МатрВектор!$J$3:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.8999999999999998E-3</c:v>
+                  <c:v>8.9999999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2999999999999997E-2</c:v>
+                  <c:v>3.3000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9000000000000005E-2</c:v>
+                  <c:v>0.13200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.47699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.27</c:v>
+                  <c:v>2.0499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3800000000000008</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.94</c:v>
+                  <c:v>44.72</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>133.69999999999999</c:v>
+                  <c:v>171.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>Debug32AVX</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>МатрВектор!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>МатрВектор!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>136.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>549.62900000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3076,11 +2469,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1128478304"/>
-        <c:axId val="-1128470144"/>
+        <c:axId val="-224490672"/>
+        <c:axId val="-224492848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1128478304"/>
+        <c:axId val="-224490672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3198,12 +2591,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1128470144"/>
+        <c:crossAx val="-224492848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1128470144"/>
+        <c:axId val="-224492848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3316,7 +2709,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1128478304"/>
+        <c:crossAx val="-224490672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3330,6 +2723,946 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Debug32 SSE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>МатрВектор!$A$16:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>МатрВектор!$B$16:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.8666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.296875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.256544502617801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4246987951807226</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5817410825642304</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3529196188614707</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4711852330028501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Debug64</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>МатрВектор!$A$16:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>МатрВектор!$D$16:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.7391304347826089</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0752688172043012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.19533527696793</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6416845110635259</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.911734693877551</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3747541264004104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8777218256629993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5307621473459738</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Release32</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>МатрВектор!$A$16:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>МатрВектор!$E$16:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4209354120267266</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.130363036303631</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.804823151125403</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.866148238153098</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43.024069034185196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Release64</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>МатрВектор!$A$16:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>МатрВектор!$F$16:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8181818181818181</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1363636363636362</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.901467505241092</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.185365853658537</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.047619047619047</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.58613595706619</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.511047796255376</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Теоретическое</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>МатрВектор!$A$16:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>МатрВектор!$G$16:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>МатрВектор!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Debug32 AVX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>МатрВектор!$A$16:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>МатрВектор!$C$16:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.6470588235294117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74829931972789121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81532416502946947</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81081081081081074</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78859619873291098</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94447423294608279</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80987202925045709</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87904568354289891</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>МатрВектор!$H$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Теор. Для AVX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>МатрВектор!$A$16:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>МатрВектор!$H$16:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-224493392"/>
+        <c:axId val="-224487408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-224493392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-224487408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-224487408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-224493392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3421,728 +3754,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Debug32</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>МатрВектор!$A$16:$A$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8192</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>МатрВектор!$B$16:$B$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.0740740740740742</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4358974358974359</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3193548387096774</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5511811023622046</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5123456790123455</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.38576406172225</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5282748747315678</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.5163467306538694</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Debug64</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>МатрВектор!$A$16:$A$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8192</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>МатрВектор!$C$16:$C$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.1199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7777777777777779</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4594594594594597</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2112676056338028</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1700680272108843</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1682513435303845</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.3856195607128059</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2657320791098836</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Release32</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>МатрВектор!$A$16:$A$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8192</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>МатрВектор!$D$16:$D$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2.6530612244897958</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.4166666666666665</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.7433628318584069</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.5370370370370372</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.114624505928855</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.607043558850789</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20.862466487935656</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42.593325418810181</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Release64</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>МатрВектор!$A$16:$A$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8192</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>МатрВектор!$E$16:$E$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2.0408163265306123</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.90697674418604657</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0202020202020203</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.8392857142857126</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.577092511013216</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.794749403341287</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17.022855898998696</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43.750934928945405</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>Теоретическое</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>МатрВектор!$A$16:$A$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8192</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>МатрВектор!$F$16:$F$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-653420096"/>
-        <c:axId val="-653420640"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-653420096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-653420640"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-653420640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-653420096"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="l"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
             <c:v>Release32</c:v>
           </c:tx>
           <c:spPr>
@@ -4203,22 +3814,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.42699999999999999</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3199999999999998</c:v>
+                  <c:v>2.41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.34</c:v>
+                  <c:v>17.72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>180.61</c:v>
+                  <c:v>220.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2985</c:v>
+                  <c:v>2970</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19157</c:v>
+                  <c:v>18875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4229,7 +3840,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Release32SIMD</c:v>
+            <c:v>Release32SSE</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4289,22 +3900,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.26700000000000002</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.35</c:v>
+                  <c:v>2.1800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.309999999999999</c:v>
+                  <c:v>15.82</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>190</c:v>
+                  <c:v>200.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2841</c:v>
+                  <c:v>2452</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15453</c:v>
+                  <c:v>14104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4375,22 +3986,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.24</c:v>
+                  <c:v>0.377</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.97</c:v>
+                  <c:v>2.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.829999999999998</c:v>
+                  <c:v>26.61</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>216.24</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2787</c:v>
+                  <c:v>2827</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17141</c:v>
+                  <c:v>15240</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4401,7 +4012,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Release64SIMD</c:v>
+            <c:v>Release64SSE</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4464,19 +4075,467 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.35</c:v>
+                  <c:v>1.97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.34</c:v>
+                  <c:v>14.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>186.05</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2751</c:v>
+                  <c:v>2384</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14958</c:v>
+                  <c:v>14470</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Debug32Stand</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>УмножениеМатриц!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>УмножениеМатриц!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.754</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136.148</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>937.74699999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7517.6379999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55382</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Debug32SSE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>УмножениеМатриц!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>УмножениеМатриц!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>851.10400000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6583.3509999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Debug32AVX</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>УмножениеМатриц!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>УмножениеМатриц!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.2570000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>216.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1810.241</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13565.415999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>108992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Debug64Stand</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>УмножениеМатриц!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>УмножениеМатриц!$I$3:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>161.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1148</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8426</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57946</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>Debug64SSE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>УмножениеМатриц!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>УмножениеМатриц!$J$3:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116.038</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>913</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7304</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58317</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4491,11 +4550,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-648560336"/>
-        <c:axId val="-648556528"/>
+        <c:axId val="-224484688"/>
+        <c:axId val="-224481968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-648560336"/>
+        <c:axId val="-224484688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4608,12 +4667,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-648556528"/>
+        <c:crossAx val="-224481968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-648556528"/>
+        <c:axId val="-224481968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4731,7 +4790,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-648560336"/>
+        <c:crossAx val="-224484688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4812,7 +4871,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -4952,22 +5011,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.5992509363295879</c:v>
+                  <c:v>0.73529411764705876</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98723404255319136</c:v>
+                  <c:v>1.1055045871559632</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0017331022530329</c:v>
+                  <c:v>1.1201011378002528</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95057894736842108</c:v>
+                  <c:v>1.0982543640897755</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0506863780359028</c:v>
+                  <c:v>1.2112561174551386</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2396945576910632</c:v>
+                  <c:v>1.3382728304027227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5038,22 +5097,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.96</c:v>
+                  <c:v>1.508</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2638297872340425</c:v>
+                  <c:v>1.4467005076142132</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97362978283350565</c:v>
+                  <c:v>1.8980028530670472</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1622682074711099</c:v>
+                  <c:v>1.5579710144927537</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0130861504907307</c:v>
+                  <c:v>1.1858221476510067</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1459419708517182</c:v>
+                  <c:v>1.0532135452660678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5146,6 +5205,385 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>УмножениеМатриц!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Debug32 SSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>УмножениеМатриц!$A$15:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>УмножениеМатриц!$E$15:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.6295857988165681</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1913303437967113</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1260276238524523</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1018007200060156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1419166318186589</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0692331454166344</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>УмножениеМатриц!$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Debug32 AVX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>УмножениеМатриц!$A$15:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>УмножениеМатриц!$F$15:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.84556340190359225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54701441317776245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62970260394986355</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51802329082149834</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55417673884825946</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50812903699354084</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>УмножениеМатриц!$G$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Debug64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>УмножениеМатриц!$A$15:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>УмножениеМатриц!$G$15:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.2411764705882353</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67261645624727906</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3875626949792308</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2573932092004381</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1536144578313252</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99363821870123636</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>УмножениеМатриц!$I$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>УмножениеМатриц!$A$15:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>УмножениеМатриц!$H$15:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -5154,11 +5592,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-648554896"/>
-        <c:axId val="-648552720"/>
+        <c:axId val="-224498288"/>
+        <c:axId val="-224478160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-648554896"/>
+        <c:axId val="-224498288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5215,12 +5653,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-648552720"/>
+        <c:crossAx val="-224478160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-648552720"/>
+        <c:axId val="-224478160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5277,7 +5715,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-648554896"/>
+        <c:crossAx val="-224498288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5558,46 +5996,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -8178,533 +8576,17 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>342899</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -8733,48 +8615,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>61910</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>90486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
@@ -8798,16 +8645,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>214312</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8829,20 +8676,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8863,16 +8710,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>223836</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9181,48 +9028,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M9"/>
+  <dimension ref="B1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="M2" t="s">
-        <v>8</v>
+      <c r="K2" s="6"/>
+      <c r="N2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -9230,207 +9082,292 @@
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>7</v>
+      <c r="K3" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>64</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="D4" s="8">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="D4" s="10">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
+        <v>0.217</v>
+      </c>
+      <c r="F4" s="8">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="F4" s="10">
-        <v>3.1E-2</v>
-      </c>
-      <c r="G4" s="9">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="H4" s="10">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="I4" s="9">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="J4" s="10">
-        <v>1.0999999999999999E-2</v>
+      <c r="G4" s="8">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H4" s="8">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I4" s="8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J4" s="8">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K4" s="8">
+        <v>2E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>128</v>
       </c>
-      <c r="C5" s="9">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="E5" s="9">
-        <v>8.2799999999999999E-2</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="G5" s="9">
-        <v>3.9E-2</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="I5" s="9">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="J5" s="10">
-        <v>4.1000000000000002E-2</v>
+      <c r="C5" s="8">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="E5" s="8">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="F5" s="8">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="G5" s="8">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="H5" s="8">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1.4E-2</v>
+      </c>
+      <c r="J5" s="8">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="K5" s="8">
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>256</v>
       </c>
-      <c r="C6" s="9">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="H6" s="10">
-        <v>0.17</v>
-      </c>
-      <c r="I6" s="10">
+      <c r="C6" s="8">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.317</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.159</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0.111</v>
+      </c>
+      <c r="J6" s="8">
         <v>0.14599999999999999</v>
       </c>
-      <c r="J6" s="9">
-        <v>0.13300000000000001</v>
+      <c r="K6" s="8">
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>512</v>
       </c>
-      <c r="C7" s="9">
-        <v>1.234</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1.9830000000000001</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1.99</v>
-      </c>
-      <c r="F7" s="10">
-        <v>2.34</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0.59</v>
-      </c>
-      <c r="H7" s="10">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0.98</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0.79459999999999997</v>
+      <c r="C7" s="8">
+        <v>0.1283</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1.3029999999999999</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1.4850000000000001</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1.97</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1.3049999999999999</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.38</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>1024</v>
       </c>
-      <c r="C8" s="9">
-        <v>5.1280000000000001</v>
-      </c>
-      <c r="D8" s="10">
-        <v>6.87</v>
-      </c>
-      <c r="E8" s="9">
-        <v>7.62</v>
-      </c>
-      <c r="F8" s="10">
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="G8" s="9">
-        <v>2.89</v>
-      </c>
-      <c r="H8" s="10">
-        <v>3.93</v>
-      </c>
-      <c r="I8" s="10">
-        <v>3</v>
-      </c>
-      <c r="J8" s="9">
-        <v>2.83</v>
+      <c r="C8" s="8">
+        <v>4.976</v>
+      </c>
+      <c r="D8" s="8">
+        <v>5.3140000000000001</v>
+      </c>
+      <c r="E8" s="8">
+        <v>5.54</v>
+      </c>
+      <c r="F8" s="8">
+        <v>6.69</v>
+      </c>
+      <c r="G8" s="8">
+        <v>5.7539999999999996</v>
+      </c>
+      <c r="H8" s="8">
+        <v>2.1419999999999999</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1.7629999999999999</v>
+      </c>
+      <c r="J8" s="8">
+        <v>2.3439999999999999</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1.4818</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>2048</v>
       </c>
-      <c r="C9" s="9">
-        <v>24.04</v>
-      </c>
-      <c r="D9" s="10">
-        <v>32.99</v>
-      </c>
-      <c r="E9" s="9">
-        <v>26.12</v>
-      </c>
-      <c r="F9" s="10">
-        <v>35.97</v>
-      </c>
-      <c r="G9" s="9">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="H9" s="10">
-        <v>18.2</v>
-      </c>
-      <c r="I9" s="9">
-        <v>10.43</v>
-      </c>
-      <c r="J9" s="11">
-        <v>10.548</v>
+      <c r="C9" s="8">
+        <v>29.341000000000001</v>
+      </c>
+      <c r="D9" s="8">
+        <v>21.253</v>
+      </c>
+      <c r="E9" s="8">
+        <v>21.956</v>
+      </c>
+      <c r="F9" s="8">
+        <v>27.85</v>
+      </c>
+      <c r="G9" s="8">
+        <v>21.632000000000001</v>
+      </c>
+      <c r="H9" s="8">
+        <v>9.4809999999999999</v>
+      </c>
+      <c r="I9" s="8">
+        <v>6.28</v>
+      </c>
+      <c r="J9" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="K9" s="8">
+        <v>7.0289999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="11">
+        <v>4096</v>
+      </c>
+      <c r="C10" s="12">
+        <v>80.465999999999994</v>
+      </c>
+      <c r="D10" s="10">
+        <v>83.846999999999994</v>
+      </c>
+      <c r="E10" s="12">
+        <v>90.451999999999998</v>
+      </c>
+      <c r="F10" s="12">
+        <v>108.96</v>
+      </c>
+      <c r="G10" s="12">
+        <v>89.06</v>
+      </c>
+      <c r="H10" s="12">
+        <v>37.83</v>
+      </c>
+      <c r="I10" s="12">
+        <v>25.61</v>
+      </c>
+      <c r="J10" s="12">
+        <v>32.18</v>
+      </c>
+      <c r="K10" s="12">
+        <v>24.231000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="9">
+        <v>8192</v>
+      </c>
+      <c r="C11" s="10">
+        <v>336.476</v>
+      </c>
+      <c r="D11" s="10">
+        <v>340.47</v>
+      </c>
+      <c r="E11" s="10">
+        <v>361.03500000000003</v>
+      </c>
+      <c r="F11" s="10">
+        <v>384.66</v>
+      </c>
+      <c r="G11" s="10">
+        <v>345.88499999999999</v>
+      </c>
+      <c r="H11" s="10">
+        <v>162.44</v>
+      </c>
+      <c r="I11" s="10">
+        <v>93.433000000000007</v>
+      </c>
+      <c r="J11" s="10">
+        <v>119.24</v>
+      </c>
+      <c r="K11" s="10">
+        <v>86.909000000000006</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9440,42 +9377,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="K1" t="s">
-        <v>9</v>
+      <c r="J1" s="6"/>
+      <c r="L1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -9483,265 +9427,576 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>7</v>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>64</v>
       </c>
-      <c r="B3" s="6">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="D3" s="6">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="E3" s="6">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="G3" s="4">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="B3" s="16">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="D3" s="16">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="F3" s="16">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G3" s="16">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H3" s="16">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I3" s="16">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J3" s="16">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I3" s="4">
-        <v>5.7000000000000002E-3</v>
-      </c>
     </row>
-    <row r="4" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>128</v>
       </c>
-      <c r="B4" s="6">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="C4" s="4">
-        <v>8.2799999999999999E-2</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="B4" s="16">
+        <v>0.11</v>
+      </c>
+      <c r="C4" s="16">
         <v>0.08</v>
       </c>
-      <c r="F4" s="6">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="H4" s="6">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="I4" s="4">
-        <v>2.1999999999999999E-2</v>
+      <c r="D4" s="16">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="16">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="G4" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H4" s="16">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I4" s="16">
+        <v>0.06</v>
+      </c>
+      <c r="J4" s="16">
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>256</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="16">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="C5" s="16">
         <v>0.32</v>
       </c>
-      <c r="C5" s="6">
-        <v>0.33</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.31</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0.34</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.105</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="I5" s="4">
-        <v>9.7000000000000003E-2</v>
+      <c r="D5" s="16">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.41</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="H5" s="16">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>512</v>
       </c>
-      <c r="B6" s="4">
-        <v>1.302</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1.3089999999999999</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1.23</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1.35</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0.68</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0.69599999999999995</v>
+      <c r="B6" s="16">
+        <v>1.68</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1.337</v>
+      </c>
+      <c r="D6" s="16">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="E6" s="16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1.401</v>
+      </c>
+      <c r="G6" s="16">
+        <v>2.4340000000000002</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="I6" s="16">
+        <v>5.2</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0.47699999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1024</v>
       </c>
-      <c r="B7" s="4">
-        <v>5.08</v>
-      </c>
-      <c r="C7" s="6">
-        <v>5.39</v>
-      </c>
-      <c r="D7" s="4">
-        <v>5.3</v>
-      </c>
-      <c r="E7" s="6">
-        <v>5.4</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="B7" s="16">
+        <v>7.0949999999999998</v>
+      </c>
+      <c r="C7" s="16">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="D7" s="16">
+        <v>8.9969999999999999</v>
+      </c>
+      <c r="E7" s="16">
+        <v>11.241</v>
+      </c>
+      <c r="F7" s="16">
+        <v>5.88</v>
+      </c>
+      <c r="G7" s="16">
+        <v>26.98</v>
+      </c>
+      <c r="H7" s="16">
+        <v>2.4239999999999999</v>
+      </c>
+      <c r="I7" s="16">
+        <v>29.08</v>
+      </c>
+      <c r="J7" s="16">
         <v>2.0499999999999998</v>
       </c>
-      <c r="G7" s="6">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="H7" s="6">
-        <v>2.46</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1.58</v>
-      </c>
     </row>
-    <row r="8" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2048</v>
       </c>
-      <c r="B8" s="4">
-        <v>20.98</v>
-      </c>
-      <c r="C8" s="6">
-        <v>22.33</v>
-      </c>
-      <c r="D8" s="6">
-        <v>26.03</v>
-      </c>
-      <c r="E8" s="4">
-        <v>21.31</v>
-      </c>
-      <c r="F8" s="6">
-        <v>8.61</v>
-      </c>
-      <c r="G8" s="4">
-        <v>6.66</v>
-      </c>
-      <c r="H8" s="6">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="I8" s="4">
-        <v>7.7160000000000002</v>
+      <c r="B8" s="16">
+        <v>31.706</v>
+      </c>
+      <c r="C8" s="16">
+        <v>20.045000000000002</v>
+      </c>
+      <c r="D8" s="16">
+        <v>33.57</v>
+      </c>
+      <c r="E8" s="16">
+        <v>32.15</v>
+      </c>
+      <c r="F8" s="16">
+        <v>23.385999999999999</v>
+      </c>
+      <c r="G8" s="16">
+        <v>128.79900000000001</v>
+      </c>
+      <c r="H8" s="16">
+        <v>9.33</v>
+      </c>
+      <c r="I8" s="16">
+        <v>126.4</v>
+      </c>
+      <c r="J8" s="16">
+        <v>8.4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>4096</v>
       </c>
-      <c r="B9" s="4">
-        <v>83.03</v>
-      </c>
-      <c r="C9" s="6">
-        <v>85.97</v>
-      </c>
-      <c r="D9" s="4">
-        <v>83.9</v>
-      </c>
-      <c r="E9" s="6">
-        <v>85.52</v>
-      </c>
-      <c r="F9" s="6">
-        <v>37.380000000000003</v>
-      </c>
-      <c r="G9" s="4">
-        <v>25.53</v>
-      </c>
-      <c r="H9" s="6">
-        <v>35.65</v>
-      </c>
-      <c r="I9" s="4">
-        <v>24.619</v>
+      <c r="B9" s="16">
+        <v>110.75</v>
+      </c>
+      <c r="C9" s="16">
+        <v>81.86</v>
+      </c>
+      <c r="D9" s="16">
+        <v>136.75</v>
+      </c>
+      <c r="E9" s="16">
+        <v>187.56</v>
+      </c>
+      <c r="F9" s="16">
+        <v>99.887</v>
+      </c>
+      <c r="G9" s="16">
+        <v>817.49199999999996</v>
+      </c>
+      <c r="H9" s="16">
+        <v>41.15</v>
+      </c>
+      <c r="I9" s="16">
+        <v>831.17200000000003</v>
+      </c>
+      <c r="J9" s="16">
+        <v>44.72</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8192</v>
       </c>
-      <c r="B10" s="4">
-        <v>333.2</v>
-      </c>
-      <c r="C10" s="6">
-        <v>343.56</v>
-      </c>
-      <c r="D10" s="4">
-        <v>340</v>
-      </c>
-      <c r="E10" s="6">
-        <v>349.18</v>
-      </c>
-      <c r="F10" s="6">
-        <v>130.79</v>
-      </c>
-      <c r="G10" s="4">
-        <v>98.7</v>
-      </c>
-      <c r="H10" s="6">
-        <v>132.75</v>
-      </c>
-      <c r="I10" s="4">
-        <v>93.578000000000003</v>
+      <c r="B10" s="16">
+        <v>483.149</v>
+      </c>
+      <c r="C10" s="16">
+        <v>328.40800000000002</v>
+      </c>
+      <c r="D10" s="16">
+        <v>549.62900000000002</v>
+      </c>
+      <c r="E10" s="16">
+        <v>568.52200000000005</v>
+      </c>
+      <c r="F10" s="16">
+        <v>371.39800000000002</v>
+      </c>
+      <c r="G10" s="16">
+        <v>6481.576</v>
+      </c>
+      <c r="H10" s="16">
+        <v>150.65</v>
+      </c>
+      <c r="I10" s="16">
+        <v>5763.23</v>
+      </c>
+      <c r="J10" s="16">
+        <v>171.98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>64</v>
+      </c>
+      <c r="B16">
+        <f>B3/C3</f>
+        <v>1.8666666666666667</v>
+      </c>
+      <c r="C16">
+        <f>B3/D3</f>
+        <v>1.6470588235294117</v>
+      </c>
+      <c r="D16">
+        <f>E3/F3</f>
+        <v>1.7391304347826089</v>
+      </c>
+      <c r="E16">
+        <f>G3/H3</f>
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <f>I3/J3</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>128</v>
+      </c>
+      <c r="B17">
+        <f>B4/C4</f>
+        <v>1.375</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:C23" si="0">B4/D4</f>
+        <v>0.74829931972789121</v>
+      </c>
+      <c r="D17">
+        <f>E4/F4</f>
+        <v>1.0752688172043012</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17:E23" si="1">G4/H4</f>
+        <v>4.375</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:F23" si="2">I4/J4</f>
+        <v>1.8181818181818181</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>256</v>
+      </c>
+      <c r="B18">
+        <f>B5/C5</f>
+        <v>1.296875</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>0.81532416502946947</v>
+      </c>
+      <c r="D18">
+        <f>E5/F5</f>
+        <v>1.19533527696793</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>4.9444444444444446</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>1.1363636363636362</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>512</v>
+      </c>
+      <c r="B19">
+        <f>B6/C6</f>
+        <v>1.256544502617801</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>0.81081081081081074</v>
+      </c>
+      <c r="D19">
+        <f>E6/F6</f>
+        <v>1.6416845110635259</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>5.4209354120267266</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>10.901467505241092</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>1024</v>
+      </c>
+      <c r="B20">
+        <f>B7/C7</f>
+        <v>1.4246987951807226</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0.78859619873291098</v>
+      </c>
+      <c r="D20">
+        <f>E7/F7</f>
+        <v>1.911734693877551</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>11.130363036303631</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>14.185365853658537</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>2048</v>
+      </c>
+      <c r="B21">
+        <f>B8/C8</f>
+        <v>1.5817410825642304</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0.94447423294608279</v>
+      </c>
+      <c r="D21">
+        <f>E8/F8</f>
+        <v>1.3747541264004104</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>13.804823151125403</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>15.047619047619047</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>4096</v>
+      </c>
+      <c r="B22">
+        <f>B9/C9</f>
+        <v>1.3529196188614707</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0.80987202925045709</v>
+      </c>
+      <c r="D22">
+        <f>E9/F9</f>
+        <v>1.8777218256629993</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>19.866148238153098</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>18.58613595706619</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>8192</v>
+      </c>
+      <c r="B23">
+        <f>B10/C10</f>
+        <v>1.4711852330028501</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0.87904568354289891</v>
+      </c>
+      <c r="D23">
+        <f>E10/F10</f>
+        <v>1.5307621473459738</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>43.024069034185196</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>33.511047796255376</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9750,807 +10005,491 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="7" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="8"/>
-      <c r="K1" t="s">
-        <v>10</v>
+      <c r="J1" s="6"/>
+      <c r="P1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>7</v>
+      <c r="J2" s="19" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="3" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18">
         <v>64</v>
       </c>
-      <c r="B3" s="6">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2.7E-2</v>
-      </c>
-      <c r="D3" s="6">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="G3" s="4">
-        <v>4.8999999999999998E-3</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="I3" s="4">
-        <v>4.8999999999999998E-3</v>
+      <c r="B3" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="21">
+        <v>0.34</v>
+      </c>
+      <c r="D3" s="21">
+        <v>0.377</v>
+      </c>
+      <c r="E3" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="F3" s="20">
+        <v>2.754</v>
+      </c>
+      <c r="G3" s="20">
+        <v>1.69</v>
+      </c>
+      <c r="H3" s="20">
+        <v>3.2570000000000001</v>
+      </c>
+      <c r="I3" s="20">
+        <v>2.11</v>
+      </c>
+      <c r="J3" s="20">
+        <v>1.7</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="4" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18">
         <v>128</v>
       </c>
-      <c r="B4" s="6">
-        <v>0.112</v>
-      </c>
-      <c r="C4" s="4">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.16</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.09</v>
-      </c>
-      <c r="F4" s="6">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G4" s="4">
-        <v>2.4E-2</v>
-      </c>
-      <c r="H4" s="4">
-        <v>3.9E-2</v>
-      </c>
-      <c r="I4" s="6">
-        <v>4.2999999999999997E-2</v>
+      <c r="B4" s="21">
+        <v>2.41</v>
+      </c>
+      <c r="C4" s="21">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D4" s="21">
+        <v>2.85</v>
+      </c>
+      <c r="E4" s="21">
+        <v>1.97</v>
+      </c>
+      <c r="F4" s="20">
+        <v>15.94</v>
+      </c>
+      <c r="G4" s="20">
+        <v>13.38</v>
+      </c>
+      <c r="H4" s="20">
+        <v>29.14</v>
+      </c>
+      <c r="I4" s="20">
+        <v>15.45</v>
+      </c>
+      <c r="J4" s="20">
+        <v>22.97</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="5" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18">
         <v>256</v>
       </c>
-      <c r="B5" s="6">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.31</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.54</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0.31</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.113</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I5" s="4">
-        <v>9.9000000000000005E-2</v>
+      <c r="B5" s="21">
+        <v>17.72</v>
+      </c>
+      <c r="C5" s="21">
+        <v>15.82</v>
+      </c>
+      <c r="D5" s="21">
+        <v>26.61</v>
+      </c>
+      <c r="E5" s="21">
+        <v>14.02</v>
+      </c>
+      <c r="F5" s="20">
+        <v>136.148</v>
+      </c>
+      <c r="G5" s="20">
+        <v>120.91</v>
+      </c>
+      <c r="H5" s="20">
+        <v>216.21</v>
+      </c>
+      <c r="I5" s="20">
+        <v>161.01</v>
+      </c>
+      <c r="J5" s="20">
+        <v>116.038</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="6" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18">
         <v>512</v>
       </c>
-      <c r="B6" s="6">
-        <v>1.97</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1.27</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1.72</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1.42</v>
-      </c>
-      <c r="F6" s="6">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.54</v>
-      </c>
-      <c r="H6" s="6">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0.56000000000000005</v>
+      <c r="B6" s="21">
+        <v>220.2</v>
+      </c>
+      <c r="C6" s="21">
+        <v>200.5</v>
+      </c>
+      <c r="D6" s="21">
+        <v>215</v>
+      </c>
+      <c r="E6" s="21">
+        <v>138</v>
+      </c>
+      <c r="F6" s="20">
+        <v>937.74699999999996</v>
+      </c>
+      <c r="G6" s="20">
+        <v>851.10400000000004</v>
+      </c>
+      <c r="H6" s="20">
+        <v>1810.241</v>
+      </c>
+      <c r="I6" s="20">
+        <v>1148</v>
+      </c>
+      <c r="J6" s="20">
+        <v>913</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+    <row r="7" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18">
         <v>1024</v>
       </c>
-      <c r="B7" s="6">
-        <v>7.35</v>
-      </c>
-      <c r="C7" s="4">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="D7" s="6">
-        <v>6.88</v>
-      </c>
-      <c r="E7" s="4">
-        <v>5.88</v>
-      </c>
-      <c r="F7" s="6">
-        <v>28.12</v>
-      </c>
-      <c r="G7" s="4">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="H7" s="6">
-        <v>28.55</v>
-      </c>
-      <c r="I7" s="4">
-        <v>2.27</v>
+      <c r="B7" s="21">
+        <v>2970</v>
+      </c>
+      <c r="C7" s="21">
+        <v>2452</v>
+      </c>
+      <c r="D7" s="21">
+        <v>2827</v>
+      </c>
+      <c r="E7" s="21">
+        <v>2384</v>
+      </c>
+      <c r="F7" s="20">
+        <v>7517.6379999999999</v>
+      </c>
+      <c r="G7" s="20">
+        <v>6583.3509999999997</v>
+      </c>
+      <c r="H7" s="20">
+        <v>13565.415999999999</v>
+      </c>
+      <c r="I7" s="20">
+        <v>8426</v>
+      </c>
+      <c r="J7" s="20">
+        <v>7304</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="8" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
         <v>2048</v>
       </c>
-      <c r="B8" s="6">
-        <v>27.84</v>
-      </c>
-      <c r="C8" s="4">
-        <v>20.09</v>
-      </c>
-      <c r="D8" s="6">
-        <v>28.26</v>
-      </c>
-      <c r="E8" s="4">
-        <v>24.19</v>
-      </c>
-      <c r="F8" s="6">
-        <v>114.45</v>
-      </c>
-      <c r="G8" s="4">
-        <v>10.79</v>
-      </c>
-      <c r="H8" s="6">
-        <v>115.6</v>
-      </c>
-      <c r="I8" s="4">
-        <v>8.3800000000000008</v>
+      <c r="B8" s="21">
+        <v>18875</v>
+      </c>
+      <c r="C8" s="21">
+        <v>14104</v>
+      </c>
+      <c r="D8" s="21">
+        <v>15240</v>
+      </c>
+      <c r="E8" s="21">
+        <v>14470</v>
+      </c>
+      <c r="F8" s="20">
+        <v>55382</v>
+      </c>
+      <c r="G8" s="20">
+        <v>51796</v>
+      </c>
+      <c r="H8" s="20">
+        <v>108992</v>
+      </c>
+      <c r="I8" s="20">
+        <v>57946</v>
+      </c>
+      <c r="J8" s="20">
+        <v>58317</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>4096</v>
-      </c>
-      <c r="B9" s="6">
-        <v>128.1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>83.82</v>
-      </c>
-      <c r="D9" s="6">
-        <v>133.74</v>
-      </c>
-      <c r="E9" s="4">
-        <v>96.52</v>
-      </c>
-      <c r="F9" s="6">
-        <v>778.17</v>
-      </c>
-      <c r="G9" s="4">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="H9" s="6">
-        <v>782.03</v>
-      </c>
-      <c r="I9" s="4">
-        <v>45.94</v>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>8192</v>
-      </c>
-      <c r="B10" s="6">
-        <v>505.55</v>
-      </c>
-      <c r="C10" s="4">
-        <v>333.4</v>
-      </c>
-      <c r="D10" s="6">
-        <v>485.75</v>
-      </c>
-      <c r="E10" s="4">
-        <v>383.77</v>
-      </c>
-      <c r="F10" s="6">
-        <v>6458</v>
-      </c>
-      <c r="G10" s="4">
-        <v>151.62</v>
-      </c>
-      <c r="H10" s="6">
-        <v>5849.5</v>
-      </c>
-      <c r="I10" s="4">
-        <v>133.69999999999999</v>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
         <v>11</v>
       </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F14" t="s">
-        <v>17</v>
+    <row r="15" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>64</v>
+      </c>
+      <c r="B15">
+        <f>B3/C3</f>
+        <v>0.73529411764705876</v>
+      </c>
+      <c r="C15">
+        <f>D3/E3</f>
+        <v>1.508</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <f>F3/G3</f>
+        <v>1.6295857988165681</v>
+      </c>
+      <c r="F15">
+        <f>F3/H3</f>
+        <v>0.84556340190359225</v>
+      </c>
+      <c r="G15">
+        <f>I3/J3</f>
+        <v>1.2411764705882353</v>
+      </c>
+      <c r="H15">
+        <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="12" t="s">
+    <row r="16" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>128</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ref="B16:B20" si="0">B4/C4</f>
+        <v>1.1055045871559632</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:C20" si="1">D4/E4</f>
+        <v>1.4467005076142132</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16:E20" si="2">F4/G4</f>
+        <v>1.1913303437967113</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:F20" si="3">F4/H4</f>
+        <v>0.54701441317776245</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G20" si="4">I4/J4</f>
+        <v>0.67261645624727906</v>
+      </c>
+      <c r="H16">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>64</v>
-      </c>
-      <c r="B16">
-        <f>B3/C3</f>
-        <v>1.0740740740740742</v>
-      </c>
-      <c r="C16">
-        <f>D3/E3</f>
-        <v>1.1199999999999999</v>
-      </c>
-      <c r="D16">
-        <f>F3/G3</f>
-        <v>2.6530612244897958</v>
-      </c>
-      <c r="E16">
-        <f>H3/I3</f>
-        <v>2.0408163265306123</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
+    <row r="17" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>256</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>1.1201011378002528</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>1.8980028530670472</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>1.1260276238524523</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>0.62970260394986355</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>1.3875626949792308</v>
+      </c>
+      <c r="H17">
+        <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>128</v>
-      </c>
-      <c r="B17">
-        <f t="shared" ref="B17:D23" si="0">B4/C4</f>
-        <v>1.4358974358974359</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ref="C17:C23" si="1">D4/E4</f>
-        <v>1.7777777777777779</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ref="D17:D23" si="2">F4/G4</f>
-        <v>2.4166666666666665</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ref="E17:E23" si="3">H4/I4</f>
-        <v>0.90697674418604657</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>1.3193548387096774</v>
+        <v>1.0982543640897755</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>1.4594594594594597</v>
+        <v>1.5579710144927537</v>
       </c>
       <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="2"/>
-        <v>2.7433628318584069</v>
-      </c>
-      <c r="E18">
+        <v>1.1018007200060156</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="3"/>
-        <v>2.0202020202020203</v>
-      </c>
-      <c r="F18">
-        <v>4</v>
+        <v>0.51802329082149834</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>1.2573932092004381</v>
+      </c>
+      <c r="H18">
+        <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>1.5511811023622046</v>
+        <v>1.2112561174551386</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>1.2112676056338028</v>
+        <v>1.1858221476510067</v>
       </c>
       <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="2"/>
-        <v>4.5370370370370372</v>
-      </c>
-      <c r="E19">
+        <v>1.1419166318186589</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="3"/>
-        <v>7.8392857142857126</v>
-      </c>
-      <c r="F19">
-        <v>4</v>
+        <v>0.55417673884825946</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>1.1536144578313252</v>
+      </c>
+      <c r="H19">
+        <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>1.5123456790123455</v>
+        <v>1.3382728304027227</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>1.1700680272108843</v>
+        <v>1.0532135452660678</v>
       </c>
       <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="2"/>
-        <v>11.114624505928855</v>
-      </c>
-      <c r="E20">
+        <v>1.0692331454166344</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="3"/>
-        <v>12.577092511013216</v>
-      </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>2048</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>1.38576406172225</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="1"/>
-        <v>1.1682513435303845</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="2"/>
-        <v>10.607043558850789</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="3"/>
-        <v>13.794749403341287</v>
-      </c>
-      <c r="F21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>4096</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>1.5282748747315678</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="1"/>
-        <v>1.3856195607128059</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="2"/>
-        <v>20.862466487935656</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="3"/>
-        <v>17.022855898998696</v>
-      </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>8192</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>1.5163467306538694</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="1"/>
-        <v>1.2657320791098836</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="2"/>
-        <v>42.593325418810181</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="3"/>
-        <v>43.750934928945405</v>
-      </c>
-      <c r="F23">
-        <v>4</v>
+        <v>0.50812903699354084</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>0.99363821870123636</v>
+      </c>
+      <c r="H20">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="8"/>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>64</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.24</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>128</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="C4" s="5">
-        <v>2.35</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2.97</v>
-      </c>
-      <c r="E4" s="6">
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>256</v>
-      </c>
-      <c r="B5" s="6">
-        <v>17.34</v>
-      </c>
-      <c r="C5" s="4">
-        <v>17.309999999999999</v>
-      </c>
-      <c r="D5" s="4">
-        <v>18.829999999999998</v>
-      </c>
-      <c r="E5" s="5">
-        <v>19.34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>512</v>
-      </c>
-      <c r="B6" s="6">
-        <v>180.61</v>
-      </c>
-      <c r="C6" s="5">
-        <v>190</v>
-      </c>
-      <c r="D6" s="6">
-        <v>216.24</v>
-      </c>
-      <c r="E6" s="4">
-        <v>186.05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>1024</v>
-      </c>
-      <c r="B7" s="6">
-        <v>2985</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2841</v>
-      </c>
-      <c r="D7" s="6">
-        <v>2787</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2751</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>2048</v>
-      </c>
-      <c r="B8" s="6">
-        <v>19157</v>
-      </c>
-      <c r="C8" s="4">
-        <v>15453</v>
-      </c>
-      <c r="D8" s="6">
-        <v>17141</v>
-      </c>
-      <c r="E8" s="4">
-        <v>14958</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>64</v>
-      </c>
-      <c r="B15">
-        <f>B3/C3</f>
-        <v>1.5992509363295879</v>
-      </c>
-      <c r="C15">
-        <f>D3/E3</f>
-        <v>0.96</v>
-      </c>
-      <c r="D15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>128</v>
-      </c>
-      <c r="B16">
-        <f t="shared" ref="B16:B20" si="0">B4/C4</f>
-        <v>0.98723404255319136</v>
-      </c>
-      <c r="C16">
-        <f t="shared" ref="C16:C20" si="1">D4/E4</f>
-        <v>1.2638297872340425</v>
-      </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>256</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>1.0017331022530329</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="1"/>
-        <v>0.97362978283350565</v>
-      </c>
-      <c r="D17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>512</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>0.95057894736842108</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="1"/>
-        <v>1.1622682074711099</v>
-      </c>
-      <c r="D18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>1024</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>1.0506863780359028</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="1"/>
-        <v>1.0130861504907307</v>
-      </c>
-      <c r="D19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>2048</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>1.2396945576910632</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="1"/>
-        <v>1.1459419708517182</v>
-      </c>
-      <c r="D20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
